--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd80-Cd28.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd80-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.15229643936923</v>
+        <v>0.6791226666666667</v>
       </c>
       <c r="H2">
-        <v>2.15229643936923</v>
+        <v>2.037368</v>
       </c>
       <c r="I2">
-        <v>0.07831869078928556</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="J2">
-        <v>0.07831869078928556</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.39072625964406</v>
+        <v>2.3998</v>
       </c>
       <c r="N2">
-        <v>2.39072625964406</v>
+        <v>7.199400000000001</v>
       </c>
       <c r="O2">
-        <v>0.4471021149899275</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="P2">
-        <v>0.4471021149899275</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="Q2">
-        <v>5.145551616138428</v>
+        <v>1.629758575466667</v>
       </c>
       <c r="R2">
-        <v>5.145551616138428</v>
+        <v>14.6678271792</v>
       </c>
       <c r="S2">
-        <v>0.03501645229513174</v>
+        <v>0.00749820792008173</v>
       </c>
       <c r="T2">
-        <v>0.03501645229513174</v>
+        <v>0.007498207920081728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.15229643936923</v>
+        <v>0.6791226666666667</v>
       </c>
       <c r="H3">
-        <v>2.15229643936923</v>
+        <v>2.037368</v>
       </c>
       <c r="I3">
-        <v>0.07831869078928556</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="J3">
-        <v>0.07831869078928556</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.95643310169763</v>
+        <v>4.065646999999999</v>
       </c>
       <c r="N3">
-        <v>2.95643310169763</v>
+        <v>12.196941</v>
       </c>
       <c r="O3">
-        <v>0.5528978850100724</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="P3">
-        <v>0.5528978850100724</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="Q3">
-        <v>6.363120438017138</v>
+        <v>2.761073032365333</v>
       </c>
       <c r="R3">
-        <v>6.363120438017138</v>
+        <v>24.849657291288</v>
       </c>
       <c r="S3">
-        <v>0.04330223849415383</v>
+        <v>0.01270316965399471</v>
       </c>
       <c r="T3">
-        <v>0.04330223849415383</v>
+        <v>0.01270316965399471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.4511238449624</v>
+        <v>0.6791226666666667</v>
       </c>
       <c r="H4">
-        <v>11.4511238449624</v>
+        <v>2.037368</v>
       </c>
       <c r="I4">
-        <v>0.4166884315741653</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="J4">
-        <v>0.4166884315741653</v>
+        <v>0.02029974872115254</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.39072625964406</v>
+        <v>0.03148366666666667</v>
       </c>
       <c r="N4">
-        <v>2.39072625964406</v>
+        <v>0.09445099999999999</v>
       </c>
       <c r="O4">
-        <v>0.4471021149899275</v>
+        <v>0.004845929298306607</v>
       </c>
       <c r="P4">
-        <v>0.4471021149899275</v>
+        <v>0.004845929298306606</v>
       </c>
       <c r="Q4">
-        <v>27.37650247858786</v>
+        <v>0.02138127166311111</v>
       </c>
       <c r="R4">
-        <v>27.37650247858786</v>
+        <v>0.192431444968</v>
       </c>
       <c r="S4">
-        <v>0.186302279048645</v>
+        <v>9.837114707609514E-05</v>
       </c>
       <c r="T4">
-        <v>0.186302279048645</v>
+        <v>9.837114707609513E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4511238449624</v>
+        <v>2.17083</v>
       </c>
       <c r="H5">
-        <v>11.4511238449624</v>
+        <v>6.51249</v>
       </c>
       <c r="I5">
-        <v>0.4166884315741653</v>
+        <v>0.06488857709997345</v>
       </c>
       <c r="J5">
-        <v>0.4166884315741653</v>
+        <v>0.06488857709997344</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.95643310169763</v>
+        <v>2.3998</v>
       </c>
       <c r="N5">
-        <v>2.95643310169763</v>
+        <v>7.199400000000001</v>
       </c>
       <c r="O5">
-        <v>0.5528978850100724</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="P5">
-        <v>0.5528978850100724</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="Q5">
-        <v>33.85448158688587</v>
+        <v>5.209557834000001</v>
       </c>
       <c r="R5">
-        <v>33.85448158688587</v>
+        <v>46.886020506</v>
       </c>
       <c r="S5">
-        <v>0.2303861525255203</v>
+        <v>0.02396818056308584</v>
       </c>
       <c r="T5">
-        <v>0.2303861525255203</v>
+        <v>0.02396818056308583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.2295614980086</v>
+        <v>2.17083</v>
       </c>
       <c r="H6">
-        <v>13.2295614980086</v>
+        <v>6.51249</v>
       </c>
       <c r="I6">
-        <v>0.481402987659092</v>
+        <v>0.06488857709997345</v>
       </c>
       <c r="J6">
-        <v>0.481402987659092</v>
+        <v>0.06488857709997344</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.39072625964406</v>
+        <v>4.065646999999999</v>
       </c>
       <c r="N6">
-        <v>2.39072625964406</v>
+        <v>12.196941</v>
       </c>
       <c r="O6">
-        <v>0.4471021149899275</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="P6">
-        <v>0.4471021149899275</v>
+        <v>0.6257796502061076</v>
       </c>
       <c r="Q6">
-        <v>31.62826007686517</v>
+        <v>8.825828477009999</v>
       </c>
       <c r="R6">
-        <v>31.62826007686517</v>
+        <v>79.43245629308998</v>
       </c>
       <c r="S6">
-        <v>0.21523629394485</v>
+        <v>0.04060595107999343</v>
       </c>
       <c r="T6">
-        <v>0.21523629394485</v>
+        <v>0.04060595107999342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.2295614980086</v>
+        <v>2.17083</v>
       </c>
       <c r="H7">
-        <v>13.2295614980086</v>
+        <v>6.51249</v>
       </c>
       <c r="I7">
-        <v>0.481402987659092</v>
+        <v>0.06488857709997345</v>
       </c>
       <c r="J7">
-        <v>0.481402987659092</v>
+        <v>0.06488857709997344</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.95643310169763</v>
+        <v>0.03148366666666667</v>
       </c>
       <c r="N7">
-        <v>2.95643310169763</v>
+        <v>0.09445099999999999</v>
       </c>
       <c r="O7">
-        <v>0.5528978850100724</v>
+        <v>0.004845929298306607</v>
       </c>
       <c r="P7">
-        <v>0.5528978850100724</v>
+        <v>0.004845929298306606</v>
       </c>
       <c r="Q7">
-        <v>39.11231353365711</v>
+        <v>0.06834568811</v>
       </c>
       <c r="R7">
-        <v>39.11231353365711</v>
+        <v>0.6151111929899999</v>
       </c>
       <c r="S7">
-        <v>0.266166693714242</v>
+        <v>0.0003144454568941884</v>
       </c>
       <c r="T7">
-        <v>0.266166693714242</v>
+        <v>0.0003144454568941883</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.648279940483108</v>
+        <v>11.483351</v>
       </c>
       <c r="H8">
-        <v>0.648279940483108</v>
+        <v>34.450053</v>
       </c>
       <c r="I8">
-        <v>0.02358988997745718</v>
+        <v>0.3432504188395946</v>
       </c>
       <c r="J8">
-        <v>0.02358988997745718</v>
+        <v>0.3432504188395946</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.39072625964406</v>
+        <v>2.3998</v>
       </c>
       <c r="N8">
-        <v>2.39072625964406</v>
+        <v>7.199400000000001</v>
       </c>
       <c r="O8">
-        <v>0.4471021149899275</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="P8">
-        <v>0.4471021149899275</v>
+        <v>0.3693744204955859</v>
       </c>
       <c r="Q8">
-        <v>1.549859877313455</v>
+        <v>27.5577457298</v>
       </c>
       <c r="R8">
-        <v>1.549859877313455</v>
+        <v>248.0197115682</v>
       </c>
       <c r="S8">
-        <v>0.0105470897013008</v>
+        <v>0.1267879245437424</v>
       </c>
       <c r="T8">
-        <v>0.0105470897013008</v>
+        <v>0.1267879245437424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.483351</v>
+      </c>
+      <c r="H9">
+        <v>34.450053</v>
+      </c>
+      <c r="I9">
+        <v>0.3432504188395946</v>
+      </c>
+      <c r="J9">
+        <v>0.3432504188395946</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.065646999999999</v>
+      </c>
+      <c r="N9">
+        <v>12.196941</v>
+      </c>
+      <c r="O9">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="P9">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="Q9">
+        <v>46.68725154309699</v>
+      </c>
+      <c r="R9">
+        <v>420.1852638878729</v>
+      </c>
+      <c r="S9">
+        <v>0.2147991270345414</v>
+      </c>
+      <c r="T9">
+        <v>0.2147991270345414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.483351</v>
+      </c>
+      <c r="H10">
+        <v>34.450053</v>
+      </c>
+      <c r="I10">
+        <v>0.3432504188395946</v>
+      </c>
+      <c r="J10">
+        <v>0.3432504188395946</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03148366666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.09445099999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.004845929298306607</v>
+      </c>
+      <c r="P10">
+        <v>0.004845929298306606</v>
+      </c>
+      <c r="Q10">
+        <v>0.3615379951003333</v>
+      </c>
+      <c r="R10">
+        <v>3.253841955902999</v>
+      </c>
+      <c r="S10">
+        <v>0.001663367261310805</v>
+      </c>
+      <c r="T10">
+        <v>0.001663367261310805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.648279940483108</v>
-      </c>
-      <c r="H9">
-        <v>0.648279940483108</v>
-      </c>
-      <c r="I9">
-        <v>0.02358988997745718</v>
-      </c>
-      <c r="J9">
-        <v>0.02358988997745718</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.95643310169763</v>
-      </c>
-      <c r="N9">
-        <v>2.95643310169763</v>
-      </c>
-      <c r="O9">
-        <v>0.5528978850100724</v>
-      </c>
-      <c r="P9">
-        <v>0.5528978850100724</v>
-      </c>
-      <c r="Q9">
-        <v>1.91659627521083</v>
-      </c>
-      <c r="R9">
-        <v>1.91659627521083</v>
-      </c>
-      <c r="S9">
-        <v>0.01304280027615638</v>
-      </c>
-      <c r="T9">
-        <v>0.01304280027615638</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18.27015033333333</v>
+      </c>
+      <c r="H11">
+        <v>54.810451</v>
+      </c>
+      <c r="I11">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="J11">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.3998</v>
+      </c>
+      <c r="N11">
+        <v>7.199400000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3693744204955859</v>
+      </c>
+      <c r="P11">
+        <v>0.3693744204955859</v>
+      </c>
+      <c r="Q11">
+        <v>43.84470676993334</v>
+      </c>
+      <c r="R11">
+        <v>394.6023609294</v>
+      </c>
+      <c r="S11">
+        <v>0.2017211214623237</v>
+      </c>
+      <c r="T11">
+        <v>0.2017211214623237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>18.27015033333333</v>
+      </c>
+      <c r="H12">
+        <v>54.810451</v>
+      </c>
+      <c r="I12">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="J12">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.065646999999999</v>
+      </c>
+      <c r="N12">
+        <v>12.196941</v>
+      </c>
+      <c r="O12">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="P12">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="Q12">
+        <v>74.27998189226565</v>
+      </c>
+      <c r="R12">
+        <v>668.5198370303909</v>
+      </c>
+      <c r="S12">
+        <v>0.3417480091298991</v>
+      </c>
+      <c r="T12">
+        <v>0.3417480091298991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>18.27015033333333</v>
+      </c>
+      <c r="H13">
+        <v>54.810451</v>
+      </c>
+      <c r="I13">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="J13">
+        <v>0.5461155680235695</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03148366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09445099999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.004845929298306607</v>
+      </c>
+      <c r="P13">
+        <v>0.004845929298306606</v>
+      </c>
+      <c r="Q13">
+        <v>0.5752113230445556</v>
+      </c>
+      <c r="R13">
+        <v>5.176901907401</v>
+      </c>
+      <c r="S13">
+        <v>0.00264643743134677</v>
+      </c>
+      <c r="T13">
+        <v>0.00264643743134677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8512786666666666</v>
+      </c>
+      <c r="H14">
+        <v>2.553836</v>
+      </c>
+      <c r="I14">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="J14">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.3998</v>
+      </c>
+      <c r="N14">
+        <v>7.199400000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.3693744204955859</v>
+      </c>
+      <c r="P14">
+        <v>0.3693744204955859</v>
+      </c>
+      <c r="Q14">
+        <v>2.042898544266667</v>
+      </c>
+      <c r="R14">
+        <v>18.3860868984</v>
+      </c>
+      <c r="S14">
+        <v>0.009398986006352238</v>
+      </c>
+      <c r="T14">
+        <v>0.009398986006352236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8512786666666666</v>
+      </c>
+      <c r="H15">
+        <v>2.553836</v>
+      </c>
+      <c r="I15">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="J15">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.065646999999999</v>
+      </c>
+      <c r="N15">
+        <v>12.196941</v>
+      </c>
+      <c r="O15">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="P15">
+        <v>0.6257796502061076</v>
+      </c>
+      <c r="Q15">
+        <v>3.460998557297333</v>
+      </c>
+      <c r="R15">
+        <v>31.148987015676</v>
+      </c>
+      <c r="S15">
+        <v>0.01592339330767895</v>
+      </c>
+      <c r="T15">
+        <v>0.01592339330767895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8512786666666666</v>
+      </c>
+      <c r="H16">
+        <v>2.553836</v>
+      </c>
+      <c r="I16">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="J16">
+        <v>0.02544568731570993</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03148366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.09445099999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.004845929298306607</v>
+      </c>
+      <c r="P16">
+        <v>0.004845929298306606</v>
+      </c>
+      <c r="Q16">
+        <v>0.02680137378177778</v>
+      </c>
+      <c r="R16">
+        <v>0.241212364036</v>
+      </c>
+      <c r="S16">
+        <v>0.0001233080016787476</v>
+      </c>
+      <c r="T16">
+        <v>0.0001233080016787475</v>
       </c>
     </row>
   </sheetData>
